--- a/REGULAR/BUDGET/BORJA, NECY MANIMTIM.xlsx
+++ b/REGULAR/BUDGET/BORJA, NECY MANIMTIM.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="425">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1303,6 +1303,12 @@
   </si>
   <si>
     <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-2-23)</t>
   </si>
 </sst>
 </file>
@@ -3432,7 +3438,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K693" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K696" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3779,12 +3785,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M693"/>
+  <dimension ref="A2:M696"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A583" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A580" activePane="bottomLeft"/>
       <selection activeCell="D23" sqref="D23"/>
-      <selection pane="bottomLeft" activeCell="E601" sqref="E601"/>
+      <selection pane="bottomLeft" activeCell="F592" sqref="F592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,7 +3958,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>84.977000000000146</v>
+        <v>83.179000000000144</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3962,7 +3968,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.25</v>
+        <v>191.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16886,11 +16892,15 @@
       <c r="A587" s="39">
         <v>44958</v>
       </c>
-      <c r="B587" s="20"/>
+      <c r="B587" s="20" t="s">
+        <v>424</v>
+      </c>
       <c r="C587" s="13">
         <v>1.25</v>
       </c>
-      <c r="D587" s="38"/>
+      <c r="D587" s="38">
+        <v>0.29799999999999999</v>
+      </c>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
       <c r="G587" s="13">
@@ -16906,11 +16916,15 @@
       <c r="A588" s="39">
         <v>44986</v>
       </c>
-      <c r="B588" s="20"/>
+      <c r="B588" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C588" s="13">
         <v>1.25</v>
       </c>
-      <c r="D588" s="38"/>
+      <c r="D588" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
       <c r="G588" s="13">
@@ -16967,38 +16981,34 @@
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="39">
-        <v>45078</v>
-      </c>
-      <c r="B591" s="20"/>
-      <c r="C591" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D591" s="38"/>
+      <c r="A591" s="39"/>
+      <c r="B591" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C591" s="13"/>
+      <c r="D591" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G591" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H591" s="38"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
+      <c r="K591" s="49"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39">
-        <v>45108</v>
-      </c>
-      <c r="B592" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B592" s="20"/>
       <c r="C592" s="13">
         <v>1.25</v>
       </c>
-      <c r="D592" s="38">
-        <v>3</v>
-      </c>
+      <c r="D592" s="38"/>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
       <c r="G592" s="13">
@@ -17008,30 +17018,32 @@
       <c r="H592" s="38"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20" t="s">
-        <v>418</v>
-      </c>
+      <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="39"/>
+      <c r="A593" s="39">
+        <v>45108</v>
+      </c>
       <c r="B593" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C593" s="13"/>
-      <c r="D593" s="38"/>
+        <v>55</v>
+      </c>
+      <c r="C593" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D593" s="38">
+        <v>3</v>
+      </c>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H593" s="38">
-        <v>1</v>
-      </c>
+      <c r="G593" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H593" s="38"/>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="49">
-        <v>45112</v>
+      <c r="K593" s="20" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
@@ -17053,62 +17065,60 @@
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
       <c r="K594" s="49">
-        <v>45117</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B595" s="20"/>
-      <c r="C595" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A595" s="39"/>
+      <c r="B595" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C595" s="13"/>
       <c r="D595" s="38"/>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H595" s="38"/>
+      <c r="G595" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="38">
+        <v>1</v>
+      </c>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
+      <c r="K595" s="49">
+        <v>45117</v>
+      </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="39">
-        <v>45170</v>
-      </c>
-      <c r="B596" s="20"/>
-      <c r="C596" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D596" s="38"/>
+      <c r="A596" s="39"/>
+      <c r="B596" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C596" s="13"/>
+      <c r="D596" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G596" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H596" s="38"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="20"/>
+      <c r="K596" s="49"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
-        <v>45200</v>
-      </c>
-      <c r="B597" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B597" s="20"/>
       <c r="C597" s="13">
         <v>1.25</v>
       </c>
-      <c r="D597" s="38">
-        <v>2</v>
-      </c>
+      <c r="D597" s="38"/>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
       <c r="G597" s="13">
@@ -17118,13 +17128,11 @@
       <c r="H597" s="38"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20" t="s">
-        <v>422</v>
-      </c>
+      <c r="K597" s="20"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13">
@@ -17144,32 +17152,48 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B599" s="20"/>
-      <c r="C599" s="13"/>
-      <c r="D599" s="38"/>
+        <v>45200</v>
+      </c>
+      <c r="B599" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C599" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D599" s="38">
+        <v>2</v>
+      </c>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
-      <c r="G599" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G599" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H599" s="38"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="20"/>
+      <c r="K599" s="20" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A600" s="39"/>
-      <c r="B600" s="20"/>
-      <c r="C600" s="13"/>
-      <c r="D600" s="38"/>
+      <c r="A600" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B600" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C600" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D600" s="38">
+        <v>0.25</v>
+      </c>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G600" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H600" s="38"/>
       <c r="I600" s="9"/>
@@ -17177,15 +17201,23 @@
       <c r="K600" s="20"/>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601" s="39"/>
-      <c r="B601" s="20"/>
-      <c r="C601" s="13"/>
-      <c r="D601" s="38"/>
+      <c r="A601" s="39">
+        <v>45261</v>
+      </c>
+      <c r="B601" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C601" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D601" s="38">
+        <v>1</v>
+      </c>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
-      <c r="G601" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G601" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H601" s="38"/>
       <c r="I601" s="9"/>
@@ -17193,7 +17225,9 @@
       <c r="K601" s="20"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="39"/>
+      <c r="A602" s="48" t="s">
+        <v>423</v>
+      </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
       <c r="D602" s="38"/>
@@ -17209,7 +17243,9 @@
       <c r="K602" s="20"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" s="39"/>
+      <c r="A603" s="39">
+        <v>45292</v>
+      </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
       <c r="D603" s="38"/>
@@ -17225,7 +17261,9 @@
       <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="39"/>
+      <c r="A604" s="39">
+        <v>45323</v>
+      </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
       <c r="D604" s="38"/>
@@ -17241,7 +17279,9 @@
       <c r="K604" s="20"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="39"/>
+      <c r="A605" s="39">
+        <v>45352</v>
+      </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
       <c r="D605" s="38"/>
@@ -17257,7 +17297,9 @@
       <c r="K605" s="20"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="39"/>
+      <c r="A606" s="39">
+        <v>45383</v>
+      </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
       <c r="D606" s="38"/>
@@ -17273,7 +17315,9 @@
       <c r="K606" s="20"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="39"/>
+      <c r="A607" s="39">
+        <v>45413</v>
+      </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
       <c r="D607" s="38"/>
@@ -17289,7 +17333,9 @@
       <c r="K607" s="20"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" s="39"/>
+      <c r="A608" s="39">
+        <v>45444</v>
+      </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
       <c r="D608" s="38"/>
@@ -17305,7 +17351,9 @@
       <c r="K608" s="20"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="39"/>
+      <c r="A609" s="39">
+        <v>45474</v>
+      </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
       <c r="D609" s="38"/>
@@ -17321,7 +17369,9 @@
       <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A610" s="39"/>
+      <c r="A610" s="39">
+        <v>45505</v>
+      </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
       <c r="D610" s="38"/>
@@ -17337,7 +17387,9 @@
       <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" s="39"/>
+      <c r="A611" s="39">
+        <v>45536</v>
+      </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
       <c r="D611" s="38"/>
@@ -17353,7 +17405,9 @@
       <c r="K611" s="20"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A612" s="39"/>
+      <c r="A612" s="39">
+        <v>45566</v>
+      </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
       <c r="D612" s="38"/>
@@ -18649,20 +18703,68 @@
       <c r="K692" s="20"/>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A693" s="40"/>
-      <c r="B693" s="15"/>
-      <c r="C693" s="41"/>
-      <c r="D693" s="42"/>
+      <c r="A693" s="39"/>
+      <c r="B693" s="20"/>
+      <c r="C693" s="13"/>
+      <c r="D693" s="38"/>
       <c r="E693" s="9"/>
-      <c r="F693" s="15"/>
-      <c r="G693" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H693" s="42"/>
+      <c r="F693" s="20"/>
+      <c r="G693" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H693" s="38"/>
       <c r="I693" s="9"/>
-      <c r="J693" s="12"/>
-      <c r="K693" s="15"/>
+      <c r="J693" s="11"/>
+      <c r="K693" s="20"/>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" s="39"/>
+      <c r="B694" s="20"/>
+      <c r="C694" s="13"/>
+      <c r="D694" s="38"/>
+      <c r="E694" s="9"/>
+      <c r="F694" s="20"/>
+      <c r="G694" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H694" s="38"/>
+      <c r="I694" s="9"/>
+      <c r="J694" s="11"/>
+      <c r="K694" s="20"/>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A695" s="39"/>
+      <c r="B695" s="20"/>
+      <c r="C695" s="13"/>
+      <c r="D695" s="38"/>
+      <c r="E695" s="9"/>
+      <c r="F695" s="20"/>
+      <c r="G695" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H695" s="38"/>
+      <c r="I695" s="9"/>
+      <c r="J695" s="11"/>
+      <c r="K695" s="20"/>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A696" s="40"/>
+      <c r="B696" s="15"/>
+      <c r="C696" s="41"/>
+      <c r="D696" s="42"/>
+      <c r="E696" s="9"/>
+      <c r="F696" s="15"/>
+      <c r="G696" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H696" s="42"/>
+      <c r="I696" s="9"/>
+      <c r="J696" s="12"/>
+      <c r="K696" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18775,14 +18877,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.14000000000000001</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">

--- a/REGULAR/BUDGET/BORJA, NECY MANIMTIM.xlsx
+++ b/REGULAR/BUDGET/BORJA, NECY MANIMTIM.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="425">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2034,7 +2034,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2077,7 +2077,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2141,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2201,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2267,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2330,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +2428,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2487,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2552,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2595,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2670,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2856,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2922,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2980,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3046,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +3102,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3177,7 +3177,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3220,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3286,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3790,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A580" activePane="bottomLeft"/>
       <selection activeCell="D23" sqref="D23"/>
-      <selection pane="bottomLeft" activeCell="F592" sqref="F592"/>
+      <selection pane="bottomLeft" activeCell="F597" sqref="F597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,7 +3958,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>83.179000000000144</v>
+        <v>84.429000000000144</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3968,7 +3968,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>191.5</v>
+        <v>192.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17246,19 +17246,25 @@
       <c r="A603" s="39">
         <v>45292</v>
       </c>
-      <c r="B603" s="20"/>
-      <c r="C603" s="13"/>
+      <c r="B603" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C603" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D603" s="38"/>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G603" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H603" s="38"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="20"/>
+      <c r="K603" s="49">
+        <v>45329</v>
+      </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39">
